--- a/df_list_20250120.xlsx
+++ b/df_list_20250120.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="217">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -421,16 +421,263 @@
   </si>
   <si>
     <t>용남 수도항 방파제 보강공사 공법 선정 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>대구광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+  </si>
+  <si>
+    <t>대구광역시 공무원교육원 교육훈련심의위원회 위원 공개모집</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>전라도_익산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
+  </si>
+  <si>
+    <t>익산 일자리통합 플랫폼 구축 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>「죽변항 청정해수공급시설 지원사업」 특정 공법(특허・신기술) 제안 재공고</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>2025년도 경북도민행복대학 칠곡군캠퍼스 운영 용역 제안서 평가위원 추천 공고</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>전북도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.jeonbuk.go.kr/board/list.jeonbuk?boardId=BBS_0000129&amp;menuCd=DOM_000000102002005000&amp;contentsSid=1379&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>삼계~오수 지방도 확포장공사 실시설계용역 신기술·특허공법 평가결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=3</t>
+  </si>
+  <si>
+    <t>온천5호교 재가설(확장) 공사 신기술·특허 공법 선정 기술제안서 제출 안내 취소(철회) 공고</t>
+  </si>
+  <si>
+    <t>노후하수관로 정비사업(2차 2단계) 특정공법 제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>2025년도 소방차량 구매 입찰 제안서 평가위원(예비)모집 공고</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>세종소개공고</t>
+  </si>
+  <si>
+    <t>https://www.sejong.go.kr/prog/publicNotice/kor/sub02_0303/C1/list.do</t>
+  </si>
+  <si>
+    <t>2025년 소방장비 구매 제안서 평가위원 모집 공기</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>2025년 (예비)사회적기업 운영지원 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>국지도 82호선 우정~향남 도로확장공사 신기술특허 공법 선정위원회 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>전북고시공고</t>
+  </si>
+  <si>
+    <t>찾아가는 산사태 예방 교육 운영 용역 제안서평가위원회 예비평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.yeoju.go.kr/www/selectEminwonList.do?key=413&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>강원도_춘천시</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=3</t>
+  </si>
+  <si>
+    <t>춘천시 지방세심의위원회 위원 공개 모집</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>강원도_양양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.yangyang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>양양 벨로드롬 사이클 전지훈련(에어돔)조성사업 설계(제안)공모</t>
+  </si>
+  <si>
+    <t>『테마형 접경거점지역 호수산책로 조성사업』 신기술·특허 공법 선정을 위한 제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>2025년 제1회 제천시 지방세심의위원회 회의록 공개새글</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>SK하이닉스 신규공장 공업용수 공급사업(3단계) 특정공법(배수지 내부방수(STS+PE패널라이닝)) 선정을 위한 공법선정위원회 평가위원 명단 및 평가결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=5</t>
+  </si>
+  <si>
+    <t>SK하이닉스 신규공장 공업용수 공급사업(3단계) 특정공법(배수지 내부방수...</t>
+  </si>
+  <si>
+    <t>생극 능안저수지 긴급보수사업 공법선정위원회 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>위험교량(상장리737-9번지)재가설공사 신기술특허공법 제안서 공법선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>충청도_홍성군</t>
+  </si>
+  <si>
+    <t>https://www.hongseong.go.kr/prog/saeolGosi/kor/sub03_0204/GOSI_ALL/list.do</t>
+  </si>
+  <si>
+    <t>옹암2지구 급경사지 붕괴위험지역 정비사업 기술제안서 제출안내 재공고</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>전라도_김제시</t>
+  </si>
+  <si>
+    <t>https://www.gimje.go.kr/board/list.gimje?boardId=BBS_0000044&amp;menuCd=DOM_000000104003000000&amp;contentsSid=196&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>2025년 김제시 기록화 용역 제안서 평가위원 후보자 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.yeongam.go.kr/home/www/open_information/yeongam_news/announcement/yeongam.go?page=2</t>
+  </si>
+  <si>
+    <t>A157</t>
+  </si>
+  <si>
+    <t>전라도_화순군</t>
+  </si>
+  <si>
+    <t>https://eminwon.hwasun.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>「화순 세대연대복합센터 미술작품 제작설치」 제안서 평가위원(후보자) 모집...</t>
+  </si>
+  <si>
+    <t>A163</t>
+  </si>
+  <si>
+    <t>경상도_상주시</t>
+  </si>
+  <si>
+    <t>https://www.sangju.go.kr/gosi/list.tc?mn=3016&amp;pageSeq=2686&amp;mgtNo=17409&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>「상주시 통합아동돌봄센터 플랫폼 구축 용역」 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A174</t>
+  </si>
+  <si>
+    <t>경상도_예천군</t>
+  </si>
+  <si>
+    <t>https://www.ycg.kr/open.content/ko/administrative/news/announcement/?p=1</t>
+  </si>
+  <si>
+    <t>「예천취수장 집수매거 수해복구공사」공법선정위원회 평가위원 후보자 공개모집...</t>
+  </si>
+  <si>
+    <t>A180</t>
+  </si>
+  <si>
+    <t>경상도_창원시</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=3</t>
+  </si>
+  <si>
+    <t>창원시 국공립어린이집 재위탁 심의결과 공고(예쁜아이, 용지, 글로벌리더, 썬키즈, 추산)</t>
+  </si>
+  <si>
+    <t>https://www.sacheon.go.kr/news/00009/00014.web?cpage=2</t>
+  </si>
+  <si>
+    <t>https://www.tongyeong.go.kr/00852/00853/00858.web?&amp;cpage=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -452,6 +699,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -482,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -492,6 +743,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1495,68 +1755,1246 @@
         <v>45677.56061342593</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>45678.02276620371</v>
+      </c>
+    </row>
     <row r="102" ht="15.75" customHeight="1"/>
     <row r="103" ht="15.75" customHeight="1"/>
     <row r="104" ht="15.75" customHeight="1"/>
@@ -2457,9 +3895,73 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C40"/>
+    <hyperlink r:id="rId2" ref="C41"/>
+    <hyperlink r:id="rId3" ref="C42"/>
+    <hyperlink r:id="rId4" ref="C43"/>
+    <hyperlink r:id="rId5" ref="C44"/>
+    <hyperlink r:id="rId6" ref="C45"/>
+    <hyperlink r:id="rId7" location="list/1" ref="C46"/>
+    <hyperlink r:id="rId8" ref="C47"/>
+    <hyperlink r:id="rId9" ref="C48"/>
+    <hyperlink r:id="rId10" ref="C49"/>
+    <hyperlink r:id="rId11" ref="C50"/>
+    <hyperlink r:id="rId12" ref="C51"/>
+    <hyperlink r:id="rId13" ref="C52"/>
+    <hyperlink r:id="rId14" ref="C53"/>
+    <hyperlink r:id="rId15" ref="C54"/>
+    <hyperlink r:id="rId16" ref="C55"/>
+    <hyperlink r:id="rId17" location="page=2" ref="C56"/>
+    <hyperlink r:id="rId18" location="page=2" ref="C57"/>
+    <hyperlink r:id="rId19" ref="C58"/>
+    <hyperlink r:id="rId20" ref="C59"/>
+    <hyperlink r:id="rId21" ref="C60"/>
+    <hyperlink r:id="rId22" ref="C61"/>
+    <hyperlink r:id="rId23" ref="C62"/>
+    <hyperlink r:id="rId24" ref="C63"/>
+    <hyperlink r:id="rId25" ref="C64"/>
+    <hyperlink r:id="rId26" ref="C65"/>
+    <hyperlink r:id="rId27" ref="C66"/>
+    <hyperlink r:id="rId28" ref="C67"/>
+    <hyperlink r:id="rId29" ref="C68"/>
+    <hyperlink r:id="rId30" ref="C69"/>
+    <hyperlink r:id="rId31" ref="C70"/>
+    <hyperlink r:id="rId32" ref="C71"/>
+    <hyperlink r:id="rId33" ref="C72"/>
+    <hyperlink r:id="rId34" ref="C73"/>
+    <hyperlink r:id="rId35" ref="C74"/>
+    <hyperlink r:id="rId36" ref="C75"/>
+    <hyperlink r:id="rId37" ref="C76"/>
+    <hyperlink r:id="rId38" ref="C77"/>
+    <hyperlink r:id="rId39" ref="C78"/>
+    <hyperlink r:id="rId40" ref="C79"/>
+    <hyperlink r:id="rId41" ref="C80"/>
+    <hyperlink r:id="rId42" ref="C81"/>
+    <hyperlink r:id="rId43" ref="C82"/>
+    <hyperlink r:id="rId44" ref="C83"/>
+    <hyperlink r:id="rId45" ref="C84"/>
+    <hyperlink r:id="rId46" ref="C85"/>
+    <hyperlink r:id="rId47" ref="C86"/>
+    <hyperlink r:id="rId48" ref="C87"/>
+    <hyperlink r:id="rId49" ref="C88"/>
+    <hyperlink r:id="rId50" ref="C89"/>
+    <hyperlink r:id="rId51" ref="C90"/>
+    <hyperlink r:id="rId52" ref="C91"/>
+    <hyperlink r:id="rId53" ref="C92"/>
+    <hyperlink r:id="rId54" ref="C93"/>
+    <hyperlink r:id="rId55" ref="C94"/>
+    <hyperlink r:id="rId56" ref="C95"/>
+    <hyperlink r:id="rId57" ref="C96"/>
+    <hyperlink r:id="rId58" ref="C97"/>
+    <hyperlink r:id="rId59" ref="C98"/>
+    <hyperlink r:id="rId60" ref="C99"/>
+    <hyperlink r:id="rId61" ref="C100"/>
+    <hyperlink r:id="rId62" ref="C101"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId63"/>
 </worksheet>
 </file>